--- a/src/main/java/leetcode/com/tag/Number_List.xlsx
+++ b/src/main/java/leetcode/com/tag/Number_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="480" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="34780" yWindow="1040" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>memoization</t>
+  </si>
+  <si>
+    <t>NG，没有解开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -667,7 +671,7 @@
   <dimension ref="A1:F700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -688,7 +692,7 @@
       </c>
       <c r="C1" s="8">
         <f>COUNTIF(C2:C700,"&gt;=0")</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -705,8 +709,12 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -727,8 +735,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2170,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -2215,7 +2227,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -2910,8 +2922,12 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="9"/>
+      <c r="B189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="9">
+        <v>1</v>
+      </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -6903,8 +6919,12 @@
         <f t="shared" si="8"/>
         <v>547</v>
       </c>
-      <c r="B548" s="2"/>
-      <c r="C548" s="9"/>
+      <c r="B548" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C548" s="9">
+        <v>1</v>
+      </c>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
@@ -8410,8 +8430,12 @@
         <f t="shared" si="10"/>
         <v>684</v>
       </c>
-      <c r="B685" s="2"/>
-      <c r="C685" s="9"/>
+      <c r="B685" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C685" s="9">
+        <v>1</v>
+      </c>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
@@ -8421,11 +8445,17 @@
         <f t="shared" si="10"/>
         <v>685</v>
       </c>
-      <c r="B686" s="2"/>
-      <c r="C686" s="9"/>
+      <c r="B686" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C686" s="9">
+        <v>1</v>
+      </c>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
-      <c r="F686" s="2"/>
+      <c r="F686" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="687" spans="1:6">
       <c r="A687" s="5">

--- a/src/main/java/leetcode/com/tag/Number_List.xlsx
+++ b/src/main/java/leetcode/com/tag/Number_List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>NG，没有解开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题的点在于，1.每次循环前先要保证去重 if( i!=j+1 &amp;&amp; nums[j]==num[j-1]) contintue
+2.最内侧是two Sum：用left和right进行接近，每次找到答案要对left和right进行修改
+3.最内侧也是去重的 但right是-- (left&lt;right &amp;&amp; nums[right]==right[+1]) =&gt; continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用双向节点构建head和tail节点达成双向链表的作用，利用链表的操作修改链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没什么难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的三种非递归遍历方式需要再重温下，这道题就是非递归遍历的变种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +308,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -670,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,7 +701,7 @@
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -692,7 +713,7 @@
       </c>
       <c r="C1" s="8">
         <f>COUNTIF(C2:C700,"&gt;=0")</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -899,16 +920,20 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="90" customHeight="1">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5">
@@ -2444,11 +2469,17 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="9"/>
+      <c r="B147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="9">
+        <v>1</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="5">
@@ -2551,11 +2582,17 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="9"/>
+      <c r="B156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="9">
+        <v>0</v>
+      </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="5">
@@ -2753,11 +2790,17 @@
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="9"/>
+      <c r="B174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="9">
+        <v>1</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="F174" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="5">

--- a/src/main/java/leetcode/com/tag/Number_List.xlsx
+++ b/src/main/java/leetcode/com/tag/Number_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34780" yWindow="1040" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,16 @@
     <t>树的三种非递归遍历方式需要再重温下，这道题就是非递归遍历的变种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. dp配合dfs解决问题，看上去很难，但是如果已知dfs的递归解法，再配合dp的概念就没那么难理解啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.buildTree的时候，要用到数组的递归循环呢，要搞清楚哦
+2.update value的时候，要注意更新
+3.sum的时候，下标的判断和方法参数中的下标传递方式也要注意，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -330,6 +340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -713,7 +726,7 @@
       </c>
       <c r="C1" s="8">
         <f>COUNTIF(C2:C700,"&gt;=0")</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4305,16 +4318,22 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" ht="45">
       <c r="A308" s="5">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="B308" s="2"/>
-      <c r="C308" s="9"/>
+      <c r="B308" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308" s="9">
+        <v>1</v>
+      </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
+      <c r="F308" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="5">
@@ -4551,16 +4570,22 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" ht="30">
       <c r="A330" s="5">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B330" s="2"/>
-      <c r="C330" s="9"/>
+      <c r="B330" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="9">
+        <v>1</v>
+      </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
+      <c r="F330" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="5">

--- a/src/main/java/leetcode/com/tag/Number_List.xlsx
+++ b/src/main/java/leetcode/com/tag/Number_List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
     <t>1.buildTree的时候，要用到数组的递归循环呢，要搞清楚哦
 2.update value的时候，要注意更新
 3.sum的时候，下标的判断和方法参数中的下标传递方式也要注意，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>208和211搞定一个就好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和79是一对需要，一个是dfs，另一个是dfs+trie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,7 +734,7 @@
       </c>
       <c r="C1" s="8">
         <f>COUNTIF(C2:C700,"&gt;=0")</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1633,8 +1641,12 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
+      <c r="B80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -3214,8 +3226,12 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="9"/>
+      <c r="B209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" s="9">
+        <v>1</v>
+      </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -3251,22 +3267,34 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="9"/>
+      <c r="B212" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" s="9">
+        <v>1</v>
+      </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
+      <c r="F212" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="5">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="9"/>
+      <c r="B213" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" s="9">
+        <v>1</v>
+      </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="F213" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="5">

--- a/src/main/java/leetcode/com/tag/Number_List.xlsx
+++ b/src/main/java/leetcode/com/tag/Number_List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,26 @@
   </si>
   <si>
     <t>和79是一对需要，一个是dfs，另一个是dfs+trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet,SortedSet：ceiling和flour值要用long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用BSt解决的，BIT的解法没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail in 将python的Merge方法移植到java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.类似于啊算最长路径，但是自己没想到解法 2.那个helper函数要理解下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要找单个关键的被除数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F293" sqref="F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -734,7 +754,7 @@
       </c>
       <c r="C1" s="8">
         <f>COUNTIF(C2:C700,"&gt;=0")</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3378,11 +3398,17 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="9"/>
+      <c r="B221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="9">
+        <v>1</v>
+      </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="F221" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="5">
@@ -4182,11 +4208,17 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="9"/>
+      <c r="B293" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C293" s="9">
+        <v>0</v>
+      </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
+      <c r="F293" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="5">
@@ -4445,11 +4477,17 @@
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
-      <c r="B316" s="2"/>
-      <c r="C316" s="9"/>
+      <c r="B316" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C316" s="9">
+        <v>1</v>
+      </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
+      <c r="F316" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="5">
@@ -4581,11 +4619,17 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
-      <c r="B328" s="2"/>
-      <c r="C328" s="9"/>
+      <c r="B328" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C328" s="9">
+        <v>2</v>
+      </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
+      <c r="F328" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="5">
@@ -8569,11 +8613,17 @@
         <f t="shared" si="10"/>
         <v>687</v>
       </c>
-      <c r="B688" s="2"/>
-      <c r="C688" s="9"/>
+      <c r="B688" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C688" s="9">
+        <v>1</v>
+      </c>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
-      <c r="F688" s="2"/>
+      <c r="F688" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="5">
